--- a/medicine/Handicap/Technologies_et_handicap_en_milieu_scolaire/Technologies_et_handicap_en_milieu_scolaire.xlsx
+++ b/medicine/Handicap/Technologies_et_handicap_en_milieu_scolaire/Technologies_et_handicap_en_milieu_scolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nouvelles technologies sont aujourd'hui un bon moyen d'aider les personnes atteintes de divers handicap en milieu scolaire. L'objectif étant de donner la même chance d'apprentissage à tout le monde, afin d'acquérir à terme le maximum de compétences pour rentrer dans la vie active.
 </t>
@@ -511,7 +523,9 @@
           <t>L’histoire de la scolarisation des élèves handicapés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 6 grandes étapes de la scolarisation des élèves handicapés sont :
 Premièrement, la loi de 1975 a l’intention de mettre en avant que les handicapés ne doivent pas être les exclus de la société. L’État a, vis-à-vis d’eux, un devoir de justice. Organisation du secteur médico-social. Les commissions d’orientation sont mises en place (CDES)
@@ -549,13 +563,15 @@
           <t>Accès aménagement de l’environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour commencer voici un rappel de ce que dit la loi de 2005 de manière schématique ci-dessous[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour commencer voici un rappel de ce que dit la loi de 2005 de manière schématique ci-dessous
 De manière plus conventionnelle certaines lois fixent des normes à respecter pour une accessibilité pour tous dans les espaces et les établissements publics ou privés.
 L’article L.111-7 stipule le fait "Les dispositions architecturales, les aménagements et équipements intérieurs et extérieurs des locaux d'habitation, qu'ils soient la propriété de personnes privées ou publiques, des établissements recevant du public, des installations ouvertes au public et des lieux de travail doivent être tels que ces locaux et installations soient accessibles à tous, et notamment aux personnes handicapées, quel que soit le type de handicap, notamment physique, sensoriel, cognitif, mental ou psychique, dans les cas et selon les conditions déterminées aux articles L. 111-7-1 à L. 111-7-3. Ces dispositions ne sont pas obligatoires pour les propriétaires construisant ou améliorant un logement pour leur propre usage."
 En France, 6 000 à 7 000 enfants scolarisés sont atteints d’une déficience motrice pouvant nécessiter l’usage d’un fauteuil.
-L’utilisation d’un fauteuil n’est pas le même pour chaque enfant. Certains l’ont en permanence et d’autre de manière intermittente. L’utilisation varie en fonction de la fatigabilité de l’enfant, du type d’activité et de l’évolution orthopédique. Il ne faut pas oublier non plus les enfants qui utilisent d’autres aides de déplacement comme des cannes tripodes, des béquilles ou encore un déambulateur[2].
+L’utilisation d’un fauteuil n’est pas le même pour chaque enfant. Certains l’ont en permanence et d’autre de manière intermittente. L’utilisation varie en fonction de la fatigabilité de l’enfant, du type d’activité et de l’évolution orthopédique. Il ne faut pas oublier non plus les enfants qui utilisent d’autres aides de déplacement comme des cannes tripodes, des béquilles ou encore un déambulateur.
 Lorsqu’un établissement accueille un élève en situation de handicap moteur, il y a tout une disposition à respecter. Aucun détail n’est à négliger, et différents points sont à respecter minutieusement.
 Tout d’abord l’accès pour aller à l’école, et donc tout ce qui va être le transport scolaire, et l’accessibilité autour de l’établissement scolaire va être mis en place.
 Par la suite, l’accessibilité en milieu scolaire se décompose en 5 points.
@@ -597,7 +613,9 @@
           <t>Nouvelles méthodes pédagogiques d’apprentissages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout d’abord, quelques articles pour illustrer nos propos.      
 L’article 26, portant sur l’adaptation et la réadaptation, de la Convention de l’ONU relative aux droits des personnes handicapés, il est dit que « Les États Parties favorisent l’offre, la connaissance et l’utilisation d’appareils et de technologies d’aide, conçus pour les personnes handicapées, qui facilitent l’adaptation et la réadaptation ».
@@ -609,10 +627,10 @@
 La tablette a différents points positifs comme la taille, elle se transporte facilement partout, les interfaces sont adaptées, avec une utilisation simple, et un grand nombre d’applications pour répondre au besoin d’un enfant autiste qui amène en côté ludique (COMOOTY, Picture AAC, Autimo ou encore Dexteria).
 Mais attention, la tablette n’est pas un outil miracle, il est donc primordial de l’utiliser avec précaution. Ce n’est pas une finalité en soi mais plutôt un tremplin afin d’arriver à différents objectifs comme, la généralisation des apprentissages. La tablette ne doit donc pas renfermer l’enfant sur lui-même, et s’écarter de tout lien social.
 D’autres technologies font leurs apparitions dans le monde scolaire et qui facilitent l’apprentissage des enfants atteints de handicaps.
-La réalité virtuelle et augmentée permet aux enseignants d’améliorer les expériences d’apprentissage. L’intérêt peut se trouver dans la visite de certains musées qui ne peuvent pas être fait de manière réelle, ou d’autres structures demandant beaucoup d’investissement[3].
+La réalité virtuelle et augmentée permet aux enseignants d’améliorer les expériences d’apprentissage. L’intérêt peut se trouver dans la visite de certains musées qui ne peuvent pas être fait de manière réelle, ou d’autres structures demandant beaucoup d’investissement.
 Il existe également des technologies afin de prévenir le harcèlement qui est de plus en plus présent sur les réseaux sociaux. (Cyberharcèlement)
 Le fonctionnement se fait principalement par l’utilisation de certains termes ainsi que par les sites web visités. De plus en plus d’applications permettent de visualiser à distance les appareils de leurs élèves.
-L’enseignement de type mobile offre une plus grande souplesse et une plus grande accessibilité pour l’apprentissage à domicile. La connexion de la technologie et des appareils mobiles dans la salle de classe permettra aux enseignants d’offrir une expérience d’apprentissage entièrement immersive et intégrée pour tous les styles et capacités d’apprentissages[4].
+L’enseignement de type mobile offre une plus grande souplesse et une plus grande accessibilité pour l’apprentissage à domicile. La connexion de la technologie et des appareils mobiles dans la salle de classe permettra aux enseignants d’offrir une expérience d’apprentissage entièrement immersive et intégrée pour tous les styles et capacités d’apprentissages.
 </t>
         </is>
       </c>
@@ -641,10 +659,12 @@
           <t>Mise en place de cours par correspondance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque l'élève ne peut pas fréquenter l'école, le collège ou le lycée pendant une période longue, par exemple lors d’une hospitalisation ou d’une convalescence ou s'il doit régulièrement s'en absenter pour suivre un traitement en milieu médical, il peut bénéficier de l'intervention des enseignants affectés dans les établissements sanitaires qui entretiendront le lien avec l'établissement scolaire d'origine.
-Dans d'autres situations, l'élève malade ou convalescent peut se voir proposer une assistance pédagogique à domicile grâce au SAPAD (service d'aide pédagogique à domicile). Ce dispositif, placé sous la responsabilité de l'inspecteur d'académie, existe dans l'ensemble des départements. Il permet à l'enfant et à l'adolescent malade ou accidenté de rester en contact avec les exigences scolaires et de poursuivre dans des conditions adaptées à son parcours de formation[5].
+Dans d'autres situations, l'élève malade ou convalescent peut se voir proposer une assistance pédagogique à domicile grâce au SAPAD (service d'aide pédagogique à domicile). Ce dispositif, placé sous la responsabilité de l'inspecteur d'académie, existe dans l'ensemble des départements. Il permet à l'enfant et à l'adolescent malade ou accidenté de rester en contact avec les exigences scolaires et de poursuivre dans des conditions adaptées à son parcours de formation.
 Dans la mesure du possible, un enseignant qui connaît déjà l'élève viendra l'aider chez lui à réaliser le travail qu'il ne peut plus faire en classe. Dans certaines situations, le recours au Centre national d'enseignement à distance (CNED) peut également constituer un moyen de poursuivre la scolarité
 Va alors être mis en place l’utilisation de la visioconférence pour l’intégration d’élèves avec des besoins particuliers ;
 Transmission de cours en direct au domicile d’un élève souffrant d’un lourd handicap physique (min. de l’éducation nationale, 2007)
